--- a/data/outputs/能源化工元源数据文件/46(2)SOLAR ENERGY MATERIALS AND SOLAR CELLS.xlsx
+++ b/data/outputs/能源化工元源数据文件/46(2)SOLAR ENERGY MATERIALS AND SOLAR CELLS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ22"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +936,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1364,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>2707779</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1580,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1779,6 +1792,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2004,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2201,6 +2216,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2404,6 +2420,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2611,6 +2628,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>43403377</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2826,6 +2848,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3029,6 +3052,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3252,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3447,6 +3472,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3662,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3857,6 +3884,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4076,6 +4104,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4287,6 +4316,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4506,6 +4536,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4721,6 +4752,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4928,6 +4960,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5147,6 +5180,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
